--- a/biology/Botanique/Asarine_couchée/Asarine_couchée.xlsx
+++ b/biology/Botanique/Asarine_couchée/Asarine_couchée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asarine_couch%C3%A9e</t>
+          <t>Asarine_couchée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asarina procumbens
 L'asarine couchée (Asarina procumbens) est le seul représentant connu en France du genre Asarina. C'est une plante plutôt montagnarde, présente notamment dans la chaîne pyrénéenne et le Massif central, dont les fleurs blanc jaunâtre rappellent par leur forme celles de la gueule-de-loup.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asarine_couch%C3%A9e</t>
+          <t>Asarine_couchée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +527,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace poussant le plus souvent dans les interstices des rochers siliceux. On la rencontre en moyenne montagne à partir de 400 mètres, en montagne jusqu'à 1 800 mètres. Assez rare, elle est présente dans les Pyrénées, les collines du Roussillon, le Massif central et les Cévennes. Elle fait l'objet d'un arrêté de protection dans la région Auvergne.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plante vivace poussant le plus souvent dans les interstices des rochers siliceux. On la rencontre en moyenne montagne à partir de 400 mètres, en montagne jusqu'à 1 800 mètres. Assez rare, elle est présente dans les Pyrénées, les collines du Roussillon, le Massif central et les Cévennes. Elle fait l'objet d'un arrêté de protection dans la région Auvergne.
 Floraison : avril à septembre
 Pollinisation : entomogame
-Dissémination : épizoochore
-Morphologie générale et végétative
-Plante herbacée velue ne dépassant pas 10 à 20 cm de haut, à souche subligneuse, à tiges rampantes flexueuses (se recourbant à plusieurs reprises). Les feuilles (3 à 4 cm) sont longuement pétiolées. Elles sont opposées, simples, à limbe réniforme crénelé et velu (le bord du limbe est souvent marqué de rouge).
-Morphologie florale
-Fleurs solitaires ou en petits racèmes (2 ou 3 fleurs) à l'aisselle des feuilles. Petit calice tubulé très velu à cinq dents. Corolle de couleur blanc jaunâtre dont les pièces sont marquées au centre de petits traits violacés formant des stries. Cette corolle en tube se termine par deux lèvres, la supérieure bilobée, l'inférieure trilobée avec un renflement (le palais) fermant la gorge. 4 étamines.
-Fruit et graines
-Le fruit est une petite capsule glabre.
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asarine_couchée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asarine_couch%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée velue ne dépassant pas 10 à 20 cm de haut, à souche subligneuse, à tiges rampantes flexueuses (se recourbant à plusieurs reprises). Les feuilles (3 à 4 cm) sont longuement pétiolées. Elles sont opposées, simples, à limbe réniforme crénelé et velu (le bord du limbe est souvent marqué de rouge).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asarine_couchée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asarine_couch%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs solitaires ou en petits racèmes (2 ou 3 fleurs) à l'aisselle des feuilles. Petit calice tubulé très velu à cinq dents. Corolle de couleur blanc jaunâtre dont les pièces sont marquées au centre de petits traits violacés formant des stries. Cette corolle en tube se termine par deux lèvres, la supérieure bilobée, l'inférieure trilobée avec un renflement (le palais) fermant la gorge. 4 étamines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asarine_couchée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asarine_couch%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite capsule glabre.
 </t>
         </is>
       </c>
